--- a/RnD/TestingChecklist.xlsx
+++ b/RnD/TestingChecklist.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\PropertyManagement_Microservice\Springboot_PropertyManagement_Front_Web\PropertyManagement_Front_Web\RnD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE5B140-060F-479F-8ECC-9A7C948B63AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623BA68-0841-4A4A-A5F5-486CDB611A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manage property" sheetId="1" r:id="rId1"/>
     <sheet name="manage order" sheetId="3" r:id="rId2"/>
-    <sheet name="manage expanse" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
-    <sheet name="manage navigation" sheetId="2" r:id="rId5"/>
+    <sheet name="manage debt" sheetId="6" r:id="rId3"/>
+    <sheet name="manage expanse" sheetId="4" r:id="rId4"/>
+    <sheet name="manage worksheet" sheetId="5" r:id="rId5"/>
+    <sheet name="manage navigation" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>worksheet list belong to land</t>
+  </si>
+  <si>
+    <t>manage debt</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>create-&gt;delete-&gt;list</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -620,11 +632,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEADB796-C876-4309-B49B-1D981A3E6A6E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153B324-CCF7-435D-AA4F-6CEFE124DB79}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -665,7 +712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96B4D86-DACE-4D79-AA9F-703970846376}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -695,7 +742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C448E9-A830-423F-8722-3A3B6C06E313}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/RnD/TestingChecklist.xlsx
+++ b/RnD/TestingChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\PropertyManagement_Microservice\Springboot_PropertyManagement_Front_Web\PropertyManagement_Front_Web\RnD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B623BA68-0841-4A4A-A5F5-486CDB611A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E62A4A-3E48-41E7-8D87-FA39398EECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
